--- a/购房/副本onePriceOneRoom.xlsx
+++ b/购房/副本onePriceOneRoom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fk/Desktop/files/购房/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF3146F-52C5-7643-8685-83CF57BA9976}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A679D-2903-234C-8E4D-EDE9F6BE94CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16480" yWindow="460" windowWidth="34720" windowHeight="24880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="460" windowWidth="34720" windowHeight="24880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="onePriceOneRoom" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="690">
   <si>
     <t>房号</t>
   </si>
@@ -2100,6 +2100,22 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧10.88 次卧两个都是8.5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧12.44 次卧8.3+5.7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧11.35 次卧8.3+5.7</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3056,10 +3072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I654"/>
+  <dimension ref="A1:J654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G662" sqref="G662"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3071,9 +3087,10 @@
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3101,8 +3118,11 @@
       <c r="I1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1">
+      <c r="J1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3131,7 +3151,7 @@
         <v>16478.78</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3157,7 +3177,7 @@
         <v>15688.02</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3183,7 +3203,7 @@
         <v>15688.02</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3212,7 +3232,7 @@
         <v>16532.580000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3238,7 +3258,7 @@
         <v>16679.45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3264,7 +3284,7 @@
         <v>16711.23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3293,7 +3313,7 @@
         <v>15659.99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3319,7 +3339,7 @@
         <v>15684.42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3345,7 +3365,7 @@
         <v>15689.99</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3374,7 +3394,7 @@
         <v>15731.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>15571.15</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3426,7 +3446,7 @@
         <v>15577.17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3455,7 +3475,7 @@
         <v>15659.88</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3481,7 +3501,7 @@
         <v>15684.42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7518,7 +7538,7 @@
         <v>15748.02</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -7547,7 +7567,7 @@
         <v>15731.9</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -7573,7 +7593,7 @@
         <v>15571.15</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -7599,7 +7619,7 @@
         <v>15577.16</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -7628,7 +7648,7 @@
         <v>15719.88</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -7653,8 +7673,11 @@
       <c r="I165">
         <v>15744.42</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1">
+      <c r="J165" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -7683,7 +7706,7 @@
         <v>15748.02</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -7712,7 +7735,7 @@
         <v>15731.9</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -7738,7 +7761,7 @@
         <v>15571.15</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -7764,7 +7787,7 @@
         <v>15577.16</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -7793,7 +7816,7 @@
         <v>15719.88</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -7818,8 +7841,11 @@
       <c r="I171">
         <v>15744.42</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1">
+      <c r="J171" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -7848,7 +7874,7 @@
         <v>15748.02</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -7877,7 +7903,7 @@
         <v>15731.9</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -7903,7 +7929,7 @@
         <v>15571.15</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -7929,7 +7955,7 @@
         <v>15577.16</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -7958,7 +7984,7 @@
         <v>16261.5</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -7983,8 +8009,11 @@
       <c r="I177">
         <v>15714.41</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -8009,8 +8038,11 @@
       <c r="I178">
         <v>15718.02</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1">
+      <c r="J178" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -8039,7 +8071,7 @@
         <v>16273.52</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -8065,7 +8097,7 @@
         <v>15541.16</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -8091,7 +8123,7 @@
         <v>15547.16</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10" hidden="1">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -8116,8 +8148,11 @@
       <c r="I182">
         <v>15714.42</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183" t="s">
         <v>192</v>
       </c>
@@ -8142,8 +8177,11 @@
       <c r="I183">
         <v>15718.03</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -8169,7 +8207,7 @@
         <v>15541.15</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -8195,7 +8233,7 @@
         <v>15547.17</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -8224,7 +8262,7 @@
         <v>15706.17</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -8250,7 +8288,7 @@
         <v>15700.17</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188" t="s">
         <v>197</v>
       </c>
@@ -8279,7 +8317,7 @@
         <v>15824.95</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -8308,7 +8346,7 @@
         <v>15867.92</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:10" hidden="1">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -8337,7 +8375,7 @@
         <v>15856.9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -8366,7 +8404,7 @@
         <v>15808.73</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>201</v>
       </c>
@@ -8392,7 +8430,7 @@
         <v>15706.17</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -8418,7 +8456,7 @@
         <v>15700.16</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194" t="s">
         <v>203</v>
       </c>
@@ -8447,7 +8485,7 @@
         <v>15719.95</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:10" hidden="1">
       <c r="A195" t="s">
         <v>204</v>
       </c>
@@ -8472,8 +8510,11 @@
       <c r="I195">
         <v>15762.92</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1">
+      <c r="J195" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196" t="s">
         <v>205</v>
       </c>
@@ -8502,7 +8543,7 @@
         <v>15751.89</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197" t="s">
         <v>206</v>
       </c>
@@ -8531,7 +8572,7 @@
         <v>15703.73</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -8557,7 +8598,7 @@
         <v>15601.17</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -8583,7 +8624,7 @@
         <v>15595.16</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -8612,7 +8653,7 @@
         <v>15719.95</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" t="s">
         <v>210</v>
       </c>
@@ -8637,8 +8678,11 @@
       <c r="I201">
         <v>15762.92</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1">
+      <c r="J201" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202" t="s">
         <v>211</v>
       </c>
@@ -8667,7 +8711,7 @@
         <v>15751.89</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1">
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -8696,7 +8740,7 @@
         <v>15703.73</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -8722,7 +8766,7 @@
         <v>15601.17</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>214</v>
       </c>
@@ -8748,7 +8792,7 @@
         <v>15595.16</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1">
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206" t="s">
         <v>215</v>
       </c>
@@ -8777,7 +8821,7 @@
         <v>15719.95</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" t="s">
         <v>216</v>
       </c>
@@ -8802,8 +8846,11 @@
       <c r="I207">
         <v>15762.92</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1">
+      <c r="J207" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -8832,7 +8879,7 @@
         <v>15751.89</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1">
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209" t="s">
         <v>218</v>
       </c>
@@ -8861,7 +8908,7 @@
         <v>15703.73</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>219</v>
       </c>
@@ -8887,7 +8934,7 @@
         <v>15601.17</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>220</v>
       </c>
@@ -8913,7 +8960,7 @@
         <v>15595.16</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1">
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212" t="s">
         <v>221</v>
       </c>
@@ -8942,7 +8989,7 @@
         <v>15689.95</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1">
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213" t="s">
         <v>222</v>
       </c>
@@ -8971,7 +9018,7 @@
         <v>15732.92</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1">
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214" t="s">
         <v>223</v>
       </c>
@@ -9000,7 +9047,7 @@
         <v>15721.89</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1">
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" t="s">
         <v>224</v>
       </c>
@@ -9029,7 +9076,7 @@
         <v>15673.73</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>225</v>
       </c>
@@ -9055,7 +9102,7 @@
         <v>15571.17</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>226</v>
       </c>
@@ -9081,7 +9128,7 @@
         <v>15565.16</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1">
+    <row r="218" spans="1:10" hidden="1">
       <c r="A218" t="s">
         <v>227</v>
       </c>
@@ -9110,7 +9157,7 @@
         <v>15689.95</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:10" hidden="1">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -9135,8 +9182,11 @@
       <c r="I219">
         <v>15732.92</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="J219" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220" t="s">
         <v>229</v>
       </c>
@@ -9161,8 +9211,11 @@
       <c r="I220">
         <v>15721.89</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" hidden="1">
+      <c r="J220" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" t="s">
         <v>230</v>
       </c>
@@ -9191,7 +9244,7 @@
         <v>15673.73</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>231</v>
       </c>
@@ -9217,7 +9270,7 @@
         <v>15571.17</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>232</v>
       </c>
@@ -9243,7 +9296,7 @@
         <v>15565.16</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1">
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224" t="s">
         <v>233</v>
       </c>
@@ -9272,7 +9325,7 @@
         <v>18481.57</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:10" hidden="1">
       <c r="A225" t="s">
         <v>234</v>
       </c>
@@ -9297,8 +9350,11 @@
       <c r="I225">
         <v>15732.91</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="J225" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -9323,8 +9379,11 @@
       <c r="I226">
         <v>15721.9</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" hidden="1">
+      <c r="J226" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227" t="s">
         <v>236</v>
       </c>
@@ -9353,7 +9412,7 @@
         <v>18465.34</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>237</v>
       </c>
@@ -9379,7 +9438,7 @@
         <v>15571.17</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>238</v>
       </c>
@@ -9405,7 +9464,7 @@
         <v>15565.16</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -9430,8 +9489,11 @@
       <c r="I230">
         <v>15702.92</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -9456,8 +9518,11 @@
       <c r="I231">
         <v>15691.9</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="J231" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>241</v>
       </c>
@@ -9483,7 +9548,7 @@
         <v>15541.17</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -9509,7 +9574,7 @@
         <v>15535.16</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234" t="s">
         <v>243</v>
       </c>
@@ -9538,7 +9603,7 @@
         <v>16500.03</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:10" hidden="1">
       <c r="A235" t="s">
         <v>244</v>
       </c>
@@ -9564,7 +9629,7 @@
         <v>15672.92</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -9589,8 +9654,11 @@
       <c r="I236">
         <v>15721.9</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" hidden="1">
+      <c r="J236" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237" t="s">
         <v>246</v>
       </c>
@@ -9619,7 +9687,7 @@
         <v>16543.8</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>247</v>
       </c>
@@ -9645,7 +9713,7 @@
         <v>16547.13</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>248</v>
       </c>
@@ -9671,7 +9739,7 @@
         <v>16541.009999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -9700,7 +9768,7 @@
         <v>15629.95</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241" t="s">
         <v>250</v>
       </c>
@@ -9726,7 +9794,7 @@
         <v>15672.92</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242" t="s">
         <v>251</v>
       </c>
@@ -9751,8 +9819,11 @@
       <c r="I242">
         <v>15721.9</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" hidden="1">
+      <c r="J242" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" hidden="1">
       <c r="A243" t="s">
         <v>252</v>
       </c>
@@ -9781,7 +9852,7 @@
         <v>15673.72</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>253</v>
       </c>
@@ -9807,7 +9878,7 @@
         <v>15571.18</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>254</v>
       </c>
@@ -9833,7 +9904,7 @@
         <v>15565.16</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246" t="s">
         <v>255</v>
       </c>
@@ -9859,7 +9930,7 @@
         <v>15659.95</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:10" hidden="1">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -9885,7 +9956,7 @@
         <v>15702.92</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -9910,8 +9981,11 @@
       <c r="I248">
         <v>15751.9</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" hidden="1">
+      <c r="J248" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -9940,7 +10014,7 @@
         <v>15703.73</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>259</v>
       </c>
@@ -9966,7 +10040,7 @@
         <v>15601.18</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -9992,7 +10066,7 @@
         <v>15595.16</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252" t="s">
         <v>261</v>
       </c>
@@ -10021,7 +10095,7 @@
         <v>15659.95</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1">
+    <row r="253" spans="1:10" hidden="1">
       <c r="A253" t="s">
         <v>262</v>
       </c>
@@ -10047,7 +10121,7 @@
         <v>15702.92</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:10" hidden="1">
       <c r="A254" t="s">
         <v>263</v>
       </c>
@@ -10072,8 +10146,11 @@
       <c r="I254">
         <v>15751.9</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" hidden="1">
+      <c r="J254" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" hidden="1">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -10102,7 +10179,7 @@
         <v>15703.73</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>265</v>
       </c>
@@ -10128,7 +10205,7 @@
         <v>15601.18</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>266</v>
       </c>
@@ -10154,7 +10231,7 @@
         <v>15595.16</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1">
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258" t="s">
         <v>267</v>
       </c>
@@ -10183,7 +10260,7 @@
         <v>15659.95</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1">
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259" t="s">
         <v>268</v>
       </c>
@@ -10209,7 +10286,7 @@
         <v>15702.92</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260" t="s">
         <v>269</v>
       </c>
@@ -10234,8 +10311,11 @@
       <c r="I260">
         <v>15751.9</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" hidden="1">
+      <c r="J260" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261" t="s">
         <v>270</v>
       </c>
@@ -10264,7 +10344,7 @@
         <v>15703.73</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>271</v>
       </c>
@@ -10290,7 +10370,7 @@
         <v>15601.18</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>272</v>
       </c>
@@ -10316,7 +10396,7 @@
         <v>15595.16</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1">
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -10345,7 +10425,7 @@
         <v>15689.95</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1">
+    <row r="265" spans="1:10" hidden="1">
       <c r="A265" t="s">
         <v>274</v>
       </c>
@@ -10371,7 +10451,7 @@
         <v>15732.91</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" t="s">
         <v>275</v>
       </c>
@@ -10396,8 +10476,11 @@
       <c r="I266">
         <v>15781.9</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1">
+      <c r="J266" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" t="s">
         <v>276</v>
       </c>
@@ -10426,7 +10509,7 @@
         <v>15733.72</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -10452,7 +10535,7 @@
         <v>15631.17</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>278</v>
       </c>
@@ -10478,7 +10561,7 @@
         <v>15625.17</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1">
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" t="s">
         <v>279</v>
       </c>
@@ -10507,7 +10590,7 @@
         <v>15764.95</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1">
+    <row r="271" spans="1:10" hidden="1">
       <c r="A271" t="s">
         <v>280</v>
       </c>
@@ -10533,7 +10616,7 @@
         <v>15807.91</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" t="s">
         <v>281</v>
       </c>
@@ -10557,6 +10640,9 @@
       </c>
       <c r="I272">
         <v>15856.9</v>
+      </c>
+      <c r="J272" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="273" spans="1:9" hidden="1">
@@ -11457,7 +11543,7 @@
         <v>15766.17</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:10">
       <c r="A305" t="s">
         <v>314</v>
       </c>
@@ -11483,7 +11569,7 @@
         <v>15760.17</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306" t="s">
         <v>315</v>
       </c>
@@ -11512,7 +11598,7 @@
         <v>15884.95</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1">
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307" t="s">
         <v>316</v>
       </c>
@@ -11541,7 +11627,7 @@
         <v>15927.92</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:10" hidden="1">
       <c r="A308" t="s">
         <v>317</v>
       </c>
@@ -11566,8 +11652,11 @@
       <c r="I308">
         <v>15916.89</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" hidden="1">
+      <c r="J308" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" hidden="1">
       <c r="A309" t="s">
         <v>318</v>
       </c>
@@ -11596,7 +11685,7 @@
         <v>15868.72</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:10">
       <c r="A310" t="s">
         <v>319</v>
       </c>
@@ -11622,7 +11711,7 @@
         <v>15766.17</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:10">
       <c r="A311" t="s">
         <v>320</v>
       </c>
@@ -11648,7 +11737,7 @@
         <v>15760.17</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1">
+    <row r="312" spans="1:10" hidden="1">
       <c r="A312" t="s">
         <v>321</v>
       </c>
@@ -11677,7 +11766,7 @@
         <v>15884.95</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1">
+    <row r="313" spans="1:10" hidden="1">
       <c r="A313" t="s">
         <v>322</v>
       </c>
@@ -11706,7 +11795,7 @@
         <v>15927.92</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1">
+    <row r="314" spans="1:10" hidden="1">
       <c r="A314" t="s">
         <v>323</v>
       </c>
@@ -11735,7 +11824,7 @@
         <v>15916.89</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1">
+    <row r="315" spans="1:10" hidden="1">
       <c r="A315" t="s">
         <v>324</v>
       </c>
@@ -11764,7 +11853,7 @@
         <v>15868.72</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:10">
       <c r="A316" t="s">
         <v>325</v>
       </c>
@@ -11790,7 +11879,7 @@
         <v>15766.17</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:10">
       <c r="A317" t="s">
         <v>326</v>
       </c>
@@ -11816,7 +11905,7 @@
         <v>15760.17</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1">
+    <row r="318" spans="1:10" hidden="1">
       <c r="A318" t="s">
         <v>327</v>
       </c>
@@ -11845,7 +11934,7 @@
         <v>15884.95</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1">
+    <row r="319" spans="1:10" hidden="1">
       <c r="A319" t="s">
         <v>328</v>
       </c>
@@ -11874,7 +11963,7 @@
         <v>15927.92</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1">
+    <row r="320" spans="1:10" hidden="1">
       <c r="A320" t="s">
         <v>329</v>
       </c>
@@ -11903,7 +11992,7 @@
         <v>15916.89</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1">
+    <row r="321" spans="1:10" hidden="1">
       <c r="A321" t="s">
         <v>330</v>
       </c>
@@ -11932,7 +12021,7 @@
         <v>15868.72</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:10">
       <c r="A322" t="s">
         <v>331</v>
       </c>
@@ -11958,7 +12047,7 @@
         <v>15766.17</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:10">
       <c r="A323" t="s">
         <v>332</v>
       </c>
@@ -11984,7 +12073,7 @@
         <v>15760.17</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1">
+    <row r="324" spans="1:10" hidden="1">
       <c r="A324" t="s">
         <v>333</v>
       </c>
@@ -12013,7 +12102,7 @@
         <v>15884.95</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1">
+    <row r="325" spans="1:10" hidden="1">
       <c r="A325" t="s">
         <v>334</v>
       </c>
@@ -12042,7 +12131,7 @@
         <v>15927.92</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1">
+    <row r="326" spans="1:10" hidden="1">
       <c r="A326" t="s">
         <v>335</v>
       </c>
@@ -12071,7 +12160,7 @@
         <v>15916.89</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:10" hidden="1">
       <c r="A327" t="s">
         <v>336</v>
       </c>
@@ -12100,7 +12189,7 @@
         <v>15868.72</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1">
+    <row r="328" spans="1:10" hidden="1">
       <c r="A328" t="s">
         <v>337</v>
       </c>
@@ -12129,7 +12218,7 @@
         <v>15766.17</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:10">
       <c r="A329" t="s">
         <v>338</v>
       </c>
@@ -12155,7 +12244,7 @@
         <v>15760.17</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1">
+    <row r="330" spans="1:10" hidden="1">
       <c r="A330" t="s">
         <v>339</v>
       </c>
@@ -12184,7 +12273,7 @@
         <v>15854.94</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:10" hidden="1">
       <c r="A331" t="s">
         <v>340</v>
       </c>
@@ -12209,8 +12298,11 @@
       <c r="I331">
         <v>15897.92</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" hidden="1">
+      <c r="J331" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" hidden="1">
       <c r="A332" t="s">
         <v>341</v>
       </c>
@@ -12239,7 +12331,7 @@
         <v>15886.9</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1">
+    <row r="333" spans="1:10" hidden="1">
       <c r="A333" t="s">
         <v>342</v>
       </c>
@@ -12268,7 +12360,7 @@
         <v>15838.72</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:10">
       <c r="A334" t="s">
         <v>343</v>
       </c>
@@ -12294,7 +12386,7 @@
         <v>15736.17</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:10">
       <c r="A335" t="s">
         <v>344</v>
       </c>
@@ -12320,7 +12412,7 @@
         <v>15730.16</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1">
+    <row r="336" spans="1:10" hidden="1">
       <c r="A336" t="s">
         <v>345</v>
       </c>
@@ -13459,7 +13551,7 @@
         <v>15792.51</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" hidden="1">
       <c r="A376" t="s">
         <v>386</v>
       </c>
@@ -13598,7 +13690,7 @@
         <v>15762.51</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" hidden="1">
       <c r="A381" t="s">
         <v>391</v>
       </c>
@@ -14018,7 +14110,7 @@
         <v>15732.5</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" hidden="1">
       <c r="A396" t="s">
         <v>406</v>
       </c>
@@ -14154,7 +14246,7 @@
         <v>15732.5</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:10" hidden="1">
       <c r="A401" t="s">
         <v>411</v>
       </c>
@@ -14180,7 +14272,7 @@
         <v>15761.45</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1">
+    <row r="402" spans="1:10" hidden="1">
       <c r="A402" t="s">
         <v>412</v>
       </c>
@@ -14209,7 +14301,7 @@
         <v>15696.46</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>413</v>
       </c>
@@ -14235,7 +14327,7 @@
         <v>15619.13</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>414</v>
       </c>
@@ -14261,7 +14353,7 @@
         <v>15583.08</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1">
+    <row r="405" spans="1:10" hidden="1">
       <c r="A405" t="s">
         <v>415</v>
       </c>
@@ -14290,7 +14382,7 @@
         <v>15732.5</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1">
+    <row r="406" spans="1:10" hidden="1">
       <c r="A406" t="s">
         <v>416</v>
       </c>
@@ -14319,7 +14411,7 @@
         <v>15761.45</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:10" hidden="1">
       <c r="A407" t="s">
         <v>417</v>
       </c>
@@ -14345,7 +14437,7 @@
         <v>18453.07</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>418</v>
       </c>
@@ -14371,7 +14463,7 @@
         <v>15589.13</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>419</v>
       </c>
@@ -14397,7 +14489,7 @@
         <v>15553.09</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:10" hidden="1">
       <c r="A410" t="s">
         <v>420</v>
       </c>
@@ -14423,7 +14515,7 @@
         <v>18489.12</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:10" hidden="1">
       <c r="A411" t="s">
         <v>422</v>
       </c>
@@ -14449,7 +14541,7 @@
         <v>15731.45</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>423</v>
       </c>
@@ -14475,7 +14567,7 @@
         <v>15589.13</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>424</v>
       </c>
@@ -14501,7 +14593,7 @@
         <v>15553.08</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:10" hidden="1">
       <c r="A414" t="s">
         <v>425</v>
       </c>
@@ -14527,7 +14619,7 @@
         <v>15731.45</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:10" hidden="1">
       <c r="A415" t="s">
         <v>426</v>
       </c>
@@ -14552,8 +14644,11 @@
       <c r="I415">
         <v>16700.669999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:9">
+      <c r="J415" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>427</v>
       </c>
@@ -14579,7 +14674,7 @@
         <v>16138.23</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1">
+    <row r="417" spans="1:10" hidden="1">
       <c r="A417" t="s">
         <v>428</v>
       </c>
@@ -14608,7 +14703,7 @@
         <v>16434.04</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:10" hidden="1">
       <c r="A418" t="s">
         <v>429</v>
       </c>
@@ -14633,8 +14728,11 @@
       <c r="I418">
         <v>15732.5</v>
       </c>
-    </row>
-    <row r="419" spans="1:9">
+      <c r="J418" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" hidden="1">
       <c r="A419" t="s">
         <v>430</v>
       </c>
@@ -14660,7 +14758,7 @@
         <v>17412.919999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:10" hidden="1">
       <c r="A420" t="s">
         <v>431</v>
       </c>
@@ -14685,8 +14783,11 @@
       <c r="I420">
         <v>15696.45</v>
       </c>
-    </row>
-    <row r="421" spans="1:9">
+      <c r="J420" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>432</v>
       </c>
@@ -14712,7 +14813,7 @@
         <v>15619.14</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>433</v>
       </c>
@@ -14738,7 +14839,7 @@
         <v>15583.09</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:10" hidden="1">
       <c r="A423" t="s">
         <v>434</v>
       </c>
@@ -14763,8 +14864,11 @@
       <c r="I423">
         <v>15732.5</v>
       </c>
-    </row>
-    <row r="424" spans="1:9">
+      <c r="J423" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" hidden="1">
       <c r="A424" t="s">
         <v>435</v>
       </c>
@@ -14790,7 +14894,7 @@
         <v>17471.45</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:10" hidden="1">
       <c r="A425" t="s">
         <v>436</v>
       </c>
@@ -14815,8 +14919,11 @@
       <c r="I425">
         <v>15696.45</v>
       </c>
-    </row>
-    <row r="426" spans="1:9">
+      <c r="J425" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>437</v>
       </c>
@@ -14842,7 +14949,7 @@
         <v>15619.14</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>438</v>
       </c>
@@ -14868,7 +14975,7 @@
         <v>15583.09</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:10" hidden="1">
       <c r="A428" t="s">
         <v>439</v>
       </c>
@@ -14893,8 +15000,11 @@
       <c r="I428">
         <v>15732.5</v>
       </c>
-    </row>
-    <row r="429" spans="1:9">
+      <c r="J428" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" hidden="1">
       <c r="A429" t="s">
         <v>440</v>
       </c>
@@ -14920,7 +15030,7 @@
         <v>17471.45</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1">
+    <row r="430" spans="1:10" hidden="1">
       <c r="A430" t="s">
         <v>441</v>
       </c>
@@ -14949,7 +15059,7 @@
         <v>15726.45</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:10">
       <c r="A431" t="s">
         <v>442</v>
       </c>
@@ -14975,7 +15085,7 @@
         <v>15649.13</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:10">
       <c r="A432" t="s">
         <v>443</v>
       </c>
@@ -15030,7 +15140,7 @@
         <v>15762.51</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" hidden="1">
       <c r="A434" t="s">
         <v>445</v>
       </c>
@@ -15444,7 +15554,7 @@
         <v>15862.51</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" hidden="1">
       <c r="A449" t="s">
         <v>460</v>
       </c>
@@ -15722,7 +15832,7 @@
         <v>15862.51</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" hidden="1">
       <c r="A459" t="s">
         <v>470</v>
       </c>
@@ -15861,7 +15971,7 @@
         <v>15892.51</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" hidden="1">
       <c r="A464" t="s">
         <v>475</v>
       </c>
@@ -16139,7 +16249,7 @@
         <v>15892.51</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" hidden="1">
       <c r="A474" t="s">
         <v>485</v>
       </c>
@@ -16275,7 +16385,7 @@
         <v>15922.5</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" hidden="1">
       <c r="A479" t="s">
         <v>490</v>
       </c>
@@ -16782,7 +16892,7 @@
         <v>15809.13</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1">
+    <row r="497" spans="1:10" hidden="1">
       <c r="A497" t="s">
         <v>508</v>
       </c>
@@ -16811,7 +16921,7 @@
         <v>15773.08</v>
       </c>
     </row>
-    <row r="498" spans="1:9" hidden="1">
+    <row r="498" spans="1:10" hidden="1">
       <c r="A498" t="s">
         <v>509</v>
       </c>
@@ -16840,7 +16950,7 @@
         <v>15922.5</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1">
+    <row r="499" spans="1:10" hidden="1">
       <c r="A499" t="s">
         <v>510</v>
       </c>
@@ -16869,7 +16979,7 @@
         <v>17661.45</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1">
+    <row r="500" spans="1:10" hidden="1">
       <c r="A500" t="s">
         <v>511</v>
       </c>
@@ -16898,7 +17008,7 @@
         <v>15856.45</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1">
+    <row r="501" spans="1:10" hidden="1">
       <c r="A501" t="s">
         <v>512</v>
       </c>
@@ -16927,7 +17037,7 @@
         <v>15779.14</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1">
+    <row r="502" spans="1:10" hidden="1">
       <c r="A502" t="s">
         <v>513</v>
       </c>
@@ -16956,7 +17066,7 @@
         <v>15743.09</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1">
+    <row r="503" spans="1:10" hidden="1">
       <c r="A503" t="s">
         <v>514</v>
       </c>
@@ -16985,7 +17095,7 @@
         <v>15892.51</v>
       </c>
     </row>
-    <row r="504" spans="1:9" hidden="1">
+    <row r="504" spans="1:10" hidden="1">
       <c r="A504" t="s">
         <v>515</v>
       </c>
@@ -17014,7 +17124,7 @@
         <v>17631.45</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1">
+    <row r="505" spans="1:10" hidden="1">
       <c r="A505" t="s">
         <v>516</v>
       </c>
@@ -17043,7 +17153,7 @@
         <v>15856.45</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:10">
       <c r="A506" t="s">
         <v>517</v>
       </c>
@@ -17069,7 +17179,7 @@
         <v>15779.14</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1">
+    <row r="507" spans="1:10" hidden="1">
       <c r="A507" t="s">
         <v>518</v>
       </c>
@@ -17098,7 +17208,7 @@
         <v>15743.09</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1">
+    <row r="508" spans="1:10" hidden="1">
       <c r="A508" t="s">
         <v>519</v>
       </c>
@@ -17127,7 +17237,7 @@
         <v>15892.51</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1">
+    <row r="509" spans="1:10" hidden="1">
       <c r="A509" t="s">
         <v>520</v>
       </c>
@@ -17156,7 +17266,7 @@
         <v>17631.45</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1">
+    <row r="510" spans="1:10" hidden="1">
       <c r="A510" t="s">
         <v>521</v>
       </c>
@@ -17185,7 +17295,7 @@
         <v>15856.45</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:10" hidden="1">
       <c r="A511" t="s">
         <v>522</v>
       </c>
@@ -17210,8 +17320,11 @@
       <c r="I511">
         <v>15591.45</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" hidden="1">
+      <c r="J511" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" hidden="1">
       <c r="A512" t="s">
         <v>523</v>
       </c>
@@ -17240,7 +17353,7 @@
         <v>15764.51</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1">
+    <row r="513" spans="1:10" hidden="1">
       <c r="A513" t="s">
         <v>524</v>
       </c>
@@ -17266,7 +17379,7 @@
         <v>15713.42</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:10" hidden="1">
       <c r="A514" t="s">
         <v>525</v>
       </c>
@@ -17292,7 +17405,7 @@
         <v>17463</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:10" hidden="1">
       <c r="A515" t="s">
         <v>526</v>
       </c>
@@ -17317,8 +17430,11 @@
       <c r="I515">
         <v>15598.16</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" hidden="1">
+      <c r="J515" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" hidden="1">
       <c r="A516" t="s">
         <v>527</v>
       </c>
@@ -17347,7 +17463,7 @@
         <v>15591.45</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1">
+    <row r="517" spans="1:10" hidden="1">
       <c r="A517" t="s">
         <v>528</v>
       </c>
@@ -17376,7 +17492,7 @@
         <v>15764.51</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1">
+    <row r="518" spans="1:10" hidden="1">
       <c r="A518" t="s">
         <v>529</v>
       </c>
@@ -17405,7 +17521,7 @@
         <v>15713.42</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:10" hidden="1">
       <c r="A519" t="s">
         <v>530</v>
       </c>
@@ -17431,7 +17547,7 @@
         <v>17463</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:10" hidden="1">
       <c r="A520" t="s">
         <v>531</v>
       </c>
@@ -17456,8 +17572,11 @@
       <c r="I520">
         <v>15598.16</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" hidden="1">
+      <c r="J520" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" hidden="1">
       <c r="A521" t="s">
         <v>532</v>
       </c>
@@ -17486,7 +17605,7 @@
         <v>15591.45</v>
       </c>
     </row>
-    <row r="522" spans="1:9" hidden="1">
+    <row r="522" spans="1:10" hidden="1">
       <c r="A522" t="s">
         <v>533</v>
       </c>
@@ -17515,7 +17634,7 @@
         <v>15794.51</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1">
+    <row r="523" spans="1:10" hidden="1">
       <c r="A523" t="s">
         <v>534</v>
       </c>
@@ -17544,7 +17663,7 @@
         <v>15743.43</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:10" hidden="1">
       <c r="A524" t="s">
         <v>535</v>
       </c>
@@ -17570,7 +17689,7 @@
         <v>17492.900000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:9" hidden="1">
+    <row r="525" spans="1:10" hidden="1">
       <c r="A525" t="s">
         <v>536</v>
       </c>
@@ -17599,7 +17718,7 @@
         <v>15628.16</v>
       </c>
     </row>
-    <row r="526" spans="1:9" hidden="1">
+    <row r="526" spans="1:10" hidden="1">
       <c r="A526" t="s">
         <v>537</v>
       </c>
@@ -17628,7 +17747,7 @@
         <v>15621.45</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1">
+    <row r="527" spans="1:10" hidden="1">
       <c r="A527" t="s">
         <v>538</v>
       </c>
@@ -17657,7 +17776,7 @@
         <v>15864.51</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1">
+    <row r="528" spans="1:10" hidden="1">
       <c r="A528" t="s">
         <v>539</v>
       </c>
@@ -17686,7 +17805,7 @@
         <v>15813.42</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1">
+    <row r="529" spans="1:10" hidden="1">
       <c r="A529" t="s">
         <v>540</v>
       </c>
@@ -17715,7 +17834,7 @@
         <v>17563</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:10" hidden="1">
       <c r="A530" t="s">
         <v>541</v>
       </c>
@@ -17740,8 +17859,11 @@
       <c r="I530">
         <v>15698.16</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" hidden="1">
+      <c r="J530" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" hidden="1">
       <c r="A531" t="s">
         <v>542</v>
       </c>
@@ -17770,7 +17892,7 @@
         <v>15691.45</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1">
+    <row r="532" spans="1:10" hidden="1">
       <c r="A532" t="s">
         <v>543</v>
       </c>
@@ -17799,7 +17921,7 @@
         <v>15864.51</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1">
+    <row r="533" spans="1:10" hidden="1">
       <c r="A533" t="s">
         <v>544</v>
       </c>
@@ -17828,7 +17950,7 @@
         <v>15813.42</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:10" hidden="1">
       <c r="A534" t="s">
         <v>545</v>
       </c>
@@ -17854,7 +17976,7 @@
         <v>17563</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:10" hidden="1">
       <c r="A535" t="s">
         <v>546</v>
       </c>
@@ -17879,8 +18001,11 @@
       <c r="I535">
         <v>15698.16</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" hidden="1">
+      <c r="J535" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" hidden="1">
       <c r="A536" t="s">
         <v>547</v>
       </c>
@@ -17909,7 +18034,7 @@
         <v>15691.45</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1">
+    <row r="537" spans="1:10" hidden="1">
       <c r="A537" t="s">
         <v>548</v>
       </c>
@@ -17938,7 +18063,7 @@
         <v>15894.51</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1">
+    <row r="538" spans="1:10" hidden="1">
       <c r="A538" t="s">
         <v>549</v>
       </c>
@@ -17967,7 +18092,7 @@
         <v>15843.43</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:10" hidden="1">
       <c r="A539" t="s">
         <v>550</v>
       </c>
@@ -17993,7 +18118,7 @@
         <v>17592.900000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:10" hidden="1">
       <c r="A540" t="s">
         <v>551</v>
       </c>
@@ -18018,8 +18143,11 @@
       <c r="I540">
         <v>15728.16</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" hidden="1">
+      <c r="J540" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" hidden="1">
       <c r="A541" t="s">
         <v>552</v>
       </c>
@@ -18048,7 +18176,7 @@
         <v>15721.45</v>
       </c>
     </row>
-    <row r="542" spans="1:9" hidden="1">
+    <row r="542" spans="1:10" hidden="1">
       <c r="A542" t="s">
         <v>553</v>
       </c>
@@ -18077,7 +18205,7 @@
         <v>15894.51</v>
       </c>
     </row>
-    <row r="543" spans="1:9" hidden="1">
+    <row r="543" spans="1:10" hidden="1">
       <c r="A543" t="s">
         <v>554</v>
       </c>
@@ -18106,7 +18234,7 @@
         <v>15843.43</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:10" hidden="1">
       <c r="A544" t="s">
         <v>555</v>
       </c>
@@ -18393,7 +18521,7 @@
         <v>15873.43</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" hidden="1">
       <c r="A554" t="s">
         <v>565</v>
       </c>
@@ -18535,7 +18663,7 @@
         <v>15873.43</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" hidden="1">
       <c r="A559" t="s">
         <v>570</v>
       </c>
@@ -18590,7 +18718,7 @@
         <v>15758.17</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1">
+    <row r="561" spans="1:10" hidden="1">
       <c r="A561" t="s">
         <v>572</v>
       </c>
@@ -18619,7 +18747,7 @@
         <v>15751.45</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1">
+    <row r="562" spans="1:10" hidden="1">
       <c r="A562" t="s">
         <v>573</v>
       </c>
@@ -18648,7 +18776,7 @@
         <v>15924.51</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1">
+    <row r="563" spans="1:10" hidden="1">
       <c r="A563" t="s">
         <v>574</v>
       </c>
@@ -18677,7 +18805,7 @@
         <v>15873.43</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1">
+    <row r="564" spans="1:10" hidden="1">
       <c r="A564" t="s">
         <v>575</v>
       </c>
@@ -18706,7 +18834,7 @@
         <v>17622.990000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1">
+    <row r="565" spans="1:10" hidden="1">
       <c r="A565" t="s">
         <v>576</v>
       </c>
@@ -18735,7 +18863,7 @@
         <v>15758.17</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1">
+    <row r="566" spans="1:10" hidden="1">
       <c r="A566" t="s">
         <v>577</v>
       </c>
@@ -18764,7 +18892,7 @@
         <v>15751.45</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:10" hidden="1">
       <c r="A567" t="s">
         <v>578</v>
       </c>
@@ -18790,7 +18918,7 @@
         <v>15924.51</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1">
+    <row r="568" spans="1:10" hidden="1">
       <c r="A568" t="s">
         <v>579</v>
       </c>
@@ -18819,7 +18947,7 @@
         <v>15873.43</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:10" hidden="1">
       <c r="A569" t="s">
         <v>580</v>
       </c>
@@ -18845,7 +18973,7 @@
         <v>17622.990000000002</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1">
+    <row r="570" spans="1:10" hidden="1">
       <c r="A570" t="s">
         <v>581</v>
       </c>
@@ -18874,7 +19002,7 @@
         <v>15758.17</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:10" hidden="1">
       <c r="A571" t="s">
         <v>582</v>
       </c>
@@ -18899,8 +19027,11 @@
       <c r="I571">
         <v>15751.45</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" hidden="1">
+      <c r="J571" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" hidden="1">
       <c r="A572" t="s">
         <v>583</v>
       </c>
@@ -18929,7 +19060,7 @@
         <v>15924.51</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1">
+    <row r="573" spans="1:10" hidden="1">
       <c r="A573" t="s">
         <v>584</v>
       </c>
@@ -18958,7 +19089,7 @@
         <v>15873.43</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1">
+    <row r="574" spans="1:10" hidden="1">
       <c r="A574" t="s">
         <v>585</v>
       </c>
@@ -18987,7 +19118,7 @@
         <v>17622.990000000002</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1">
+    <row r="575" spans="1:10" hidden="1">
       <c r="A575" t="s">
         <v>586</v>
       </c>
@@ -19016,7 +19147,7 @@
         <v>15758.17</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1">
+    <row r="576" spans="1:10" hidden="1">
       <c r="A576" t="s">
         <v>587</v>
       </c>
@@ -19973,7 +20104,7 @@
         <v>15745.99</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1">
+    <row r="609" spans="1:10" hidden="1">
       <c r="A609" t="s">
         <v>620</v>
       </c>
@@ -20002,7 +20133,7 @@
         <v>17462.89</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:10" hidden="1">
       <c r="A610" t="s">
         <v>621</v>
       </c>
@@ -20027,8 +20158,11 @@
       <c r="I610">
         <v>15598.16</v>
       </c>
-    </row>
-    <row r="611" spans="1:9" hidden="1">
+      <c r="J610" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" hidden="1">
       <c r="A611" t="s">
         <v>622</v>
       </c>
@@ -20057,7 +20191,7 @@
         <v>15591.45</v>
       </c>
     </row>
-    <row r="612" spans="1:9" hidden="1">
+    <row r="612" spans="1:10" hidden="1">
       <c r="A612" t="s">
         <v>623</v>
       </c>
@@ -20086,7 +20220,7 @@
         <v>15764.51</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1">
+    <row r="613" spans="1:10" hidden="1">
       <c r="A613" t="s">
         <v>624</v>
       </c>
@@ -20115,7 +20249,7 @@
         <v>15745.99</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:10" hidden="1">
       <c r="A614" t="s">
         <v>625</v>
       </c>
@@ -20141,7 +20275,7 @@
         <v>17462.89</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1">
+    <row r="615" spans="1:10" hidden="1">
       <c r="A615" t="s">
         <v>626</v>
       </c>
@@ -20170,7 +20304,7 @@
         <v>15598.16</v>
       </c>
     </row>
-    <row r="616" spans="1:9" hidden="1">
+    <row r="616" spans="1:10" hidden="1">
       <c r="A616" t="s">
         <v>627</v>
       </c>
@@ -20199,7 +20333,7 @@
         <v>15591.45</v>
       </c>
     </row>
-    <row r="617" spans="1:9" hidden="1">
+    <row r="617" spans="1:10" hidden="1">
       <c r="A617" t="s">
         <v>628</v>
       </c>
@@ -20228,7 +20362,7 @@
         <v>15764.51</v>
       </c>
     </row>
-    <row r="618" spans="1:9" hidden="1">
+    <row r="618" spans="1:10" hidden="1">
       <c r="A618" t="s">
         <v>629</v>
       </c>
@@ -20257,7 +20391,7 @@
         <v>15745.99</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:10" hidden="1">
       <c r="A619" t="s">
         <v>630</v>
       </c>
@@ -20283,7 +20417,7 @@
         <v>17462.89</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1">
+    <row r="620" spans="1:10" hidden="1">
       <c r="A620" t="s">
         <v>631</v>
       </c>
@@ -20312,7 +20446,7 @@
         <v>15598.16</v>
       </c>
     </row>
-    <row r="621" spans="1:9" hidden="1">
+    <row r="621" spans="1:10" hidden="1">
       <c r="A621" t="s">
         <v>632</v>
       </c>
@@ -20341,7 +20475,7 @@
         <v>15591.45</v>
       </c>
     </row>
-    <row r="622" spans="1:9" hidden="1">
+    <row r="622" spans="1:10" hidden="1">
       <c r="A622" t="s">
         <v>633</v>
       </c>
@@ -20370,7 +20504,7 @@
         <v>15734.51</v>
       </c>
     </row>
-    <row r="623" spans="1:9" hidden="1">
+    <row r="623" spans="1:10" hidden="1">
       <c r="A623" t="s">
         <v>634</v>
       </c>
@@ -20399,7 +20533,7 @@
         <v>15745.99</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:10" hidden="1">
       <c r="A624" t="s">
         <v>635</v>
       </c>
@@ -20425,7 +20559,7 @@
         <v>17432.900000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:9" hidden="1">
+    <row r="625" spans="1:10" hidden="1">
       <c r="A625" t="s">
         <v>636</v>
       </c>
@@ -20454,7 +20588,7 @@
         <v>15568.16</v>
       </c>
     </row>
-    <row r="626" spans="1:9" hidden="1">
+    <row r="626" spans="1:10" hidden="1">
       <c r="A626" t="s">
         <v>637</v>
       </c>
@@ -20483,7 +20617,7 @@
         <v>15561.45</v>
       </c>
     </row>
-    <row r="627" spans="1:9" hidden="1">
+    <row r="627" spans="1:10" hidden="1">
       <c r="A627" t="s">
         <v>638</v>
       </c>
@@ -20512,7 +20646,7 @@
         <v>15734.51</v>
       </c>
     </row>
-    <row r="628" spans="1:9" hidden="1">
+    <row r="628" spans="1:10" hidden="1">
       <c r="A628" t="s">
         <v>639</v>
       </c>
@@ -20541,7 +20675,7 @@
         <v>15745.99</v>
       </c>
     </row>
-    <row r="629" spans="1:9" hidden="1">
+    <row r="629" spans="1:10" hidden="1">
       <c r="A629" t="s">
         <v>640</v>
       </c>
@@ -20570,7 +20704,7 @@
         <v>17432.900000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:10" hidden="1">
       <c r="A630" t="s">
         <v>641</v>
       </c>
@@ -20595,8 +20729,11 @@
       <c r="I630">
         <v>15568.16</v>
       </c>
-    </row>
-    <row r="631" spans="1:9" hidden="1">
+      <c r="J630" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" hidden="1">
       <c r="A631" t="s">
         <v>642</v>
       </c>
@@ -20625,7 +20762,7 @@
         <v>15561.45</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:10">
       <c r="A632" t="s">
         <v>643</v>
       </c>
@@ -20651,7 +20788,7 @@
         <v>18489.12</v>
       </c>
     </row>
-    <row r="633" spans="1:9" hidden="1">
+    <row r="633" spans="1:10" hidden="1">
       <c r="A633" t="s">
         <v>644</v>
       </c>
@@ -20680,7 +20817,7 @@
         <v>15745.99</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:10" hidden="1">
       <c r="A634" t="s">
         <v>645</v>
       </c>
@@ -20706,7 +20843,7 @@
         <v>17432.900000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:10" hidden="1">
       <c r="A635" t="s">
         <v>646</v>
       </c>
@@ -20731,8 +20868,11 @@
       <c r="I635">
         <v>15568.17</v>
       </c>
-    </row>
-    <row r="636" spans="1:9" hidden="1">
+      <c r="J635" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" hidden="1">
       <c r="A636" t="s">
         <v>647</v>
       </c>
@@ -20761,7 +20901,7 @@
         <v>15564.99</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:10" hidden="1">
       <c r="A637" t="s">
         <v>648</v>
       </c>
@@ -20787,7 +20927,7 @@
         <v>15713.42</v>
       </c>
     </row>
-    <row r="638" spans="1:9" hidden="1">
+    <row r="638" spans="1:10" hidden="1">
       <c r="A638" t="s">
         <v>649</v>
       </c>
@@ -20816,7 +20956,7 @@
         <v>15692.89</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:10" hidden="1">
       <c r="A639" t="s">
         <v>650</v>
       </c>
@@ -20841,8 +20981,11 @@
       <c r="I639">
         <v>15538.17</v>
       </c>
-    </row>
-    <row r="640" spans="1:9">
+      <c r="J639" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" hidden="1">
       <c r="A640" t="s">
         <v>651</v>
       </c>
@@ -20867,8 +21010,11 @@
       <c r="I640">
         <v>15531.45</v>
       </c>
-    </row>
-    <row r="641" spans="1:9">
+      <c r="J640" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" hidden="1">
       <c r="A641" t="s">
         <v>652</v>
       </c>
@@ -20894,7 +21040,7 @@
         <v>15734.51</v>
       </c>
     </row>
-    <row r="642" spans="1:9" hidden="1">
+    <row r="642" spans="1:10" hidden="1">
       <c r="A642" t="s">
         <v>653</v>
       </c>
@@ -20920,7 +21066,7 @@
         <v>15683.42</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:10" hidden="1">
       <c r="A643" t="s">
         <v>654</v>
       </c>
@@ -20946,7 +21092,7 @@
         <v>18374.689999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:10" hidden="1">
       <c r="A644" t="s">
         <v>655</v>
       </c>
@@ -20971,8 +21117,11 @@
       <c r="I644">
         <v>15831.31</v>
       </c>
-    </row>
-    <row r="645" spans="1:9" hidden="1">
+      <c r="J644" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" hidden="1">
       <c r="A645" t="s">
         <v>656</v>
       </c>
@@ -21001,7 +21150,7 @@
         <v>15824.57</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:10" hidden="1">
       <c r="A646" t="s">
         <v>657</v>
       </c>
@@ -21027,7 +21176,7 @@
         <v>15734.51</v>
       </c>
     </row>
-    <row r="647" spans="1:9" hidden="1">
+    <row r="647" spans="1:10" hidden="1">
       <c r="A647" t="s">
         <v>658</v>
       </c>
@@ -21053,7 +21202,7 @@
         <v>15683.42</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:10" hidden="1">
       <c r="A648" t="s">
         <v>659</v>
       </c>
@@ -21079,7 +21228,7 @@
         <v>17432.89</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:10" hidden="1">
       <c r="A649" t="s">
         <v>660</v>
       </c>
@@ -21104,8 +21253,11 @@
       <c r="I649">
         <v>15568.16</v>
       </c>
-    </row>
-    <row r="650" spans="1:9">
+      <c r="J649" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" hidden="1">
       <c r="A650" t="s">
         <v>661</v>
       </c>
@@ -21130,8 +21282,11 @@
       <c r="I650">
         <v>15561.45</v>
       </c>
-    </row>
-    <row r="651" spans="1:9" hidden="1">
+      <c r="J650" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" hidden="1">
       <c r="A651" t="s">
         <v>662</v>
       </c>
@@ -21160,7 +21315,7 @@
         <v>15764.51</v>
       </c>
     </row>
-    <row r="652" spans="1:9" hidden="1">
+    <row r="652" spans="1:10" hidden="1">
       <c r="A652" t="s">
         <v>663</v>
       </c>
@@ -21186,7 +21341,7 @@
         <v>15713.42</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:10" hidden="1">
       <c r="A653" t="s">
         <v>664</v>
       </c>
@@ -21212,7 +21367,7 @@
         <v>17463</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:10" hidden="1">
       <c r="A654" t="s">
         <v>665</v>
       </c>
@@ -21236,12 +21391,21 @@
       </c>
       <c r="I654">
         <v>15598.16</v>
+      </c>
+      <c r="J654" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I654" xr:uid="{09C82425-ADF6-5143-8AED-C8D71F1C5176}">
     <filterColumn colId="1">
       <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2室2厅1卫3阳台"/>
+        <filter val="2室2厅2卫5阳台"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
